--- a/biology/Biologie cellulaire et moléculaire/Claude_Laberge/Claude_Laberge.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Claude_Laberge/Claude_Laberge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Laberge est un généticien, chercheur et professeur québécois né en 1938. Il est à l'origine de la création de la plateforme CARTaGENE, une biobanque du Québec[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Laberge est un généticien, chercheur et professeur québécois né en 1938. Il est à l'origine de la création de la plateforme CARTaGENE, une biobanque du Québec,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2015 - Professeur émérite de l'Université Laval[1]
-2011 - Officier de l'Ordre national du Québec[3]
-2011 - Membre de l'Ordre du Canada[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2015 - Professeur émérite de l'Université Laval
+2011 - Officier de l'Ordre national du Québec
+2011 - Membre de l'Ordre du Canada</t>
         </is>
       </c>
     </row>
